--- a/medicine/Psychotrope/Brauerei_Haberstumpf/Brauerei_Haberstumpf.xlsx
+++ b/medicine/Psychotrope/Brauerei_Haberstumpf/Brauerei_Haberstumpf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brauerei Haberstumpf est une brasserie à Trebgast, dans le Land de Bavière (Allemagne).
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ancêtre de la brasserie, le "Schenckstatt" (c'est-à-dire un bar), est mentionné pour la première fois en 1394 et se situait sur la place de l'église. En 1531, les frères Schmidt obtiennent le « droit de pruiser et de pailler ».
 De 1813 à 1948, la brasserie appartient à la famille Haberstump. Lorsque August Haberstump meurt dans un accident dans la brasserie en août 1948, la brasserie passe à sa nièce Helga Wernlein, qui la lègue à son fils Hans Wernlein.
-En 2017, en raison de la disparition de distributeurs depuis les années 1980, la brasserie connaît des difficultés financières, ce qui conduit à l'arrêt temporaire de la production[1]. À l'automne 2019, l'entrepreneur de Kulmbach, Bernd Förtsch, acquiert la brasserie Haberstump[2].
+En 2017, en raison de la disparition de distributeurs depuis les années 1980, la brasserie connaît des difficultés financières, ce qui conduit à l'arrêt temporaire de la production. À l'automne 2019, l'entrepreneur de Kulmbach, Bernd Förtsch, acquiert la brasserie Haberstump.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie Haberstump brasse diverses bières toujours disponibles ou saisonnières sous les noms "Gagelmännla", "Zunft-Pils", "Derweiße August", "Die Schwarze Kunni", "Helles Vollbier", "Zwicklbier", "Kellerkrönla" et "Hopfenbock".
-Dans les années 1960, le brasseur Christian Hahn crée la recette de la Hahn-Zwergla ; la recette est redécouverte à sa mort en 1995[3].
+Dans les années 1960, le brasseur Christian Hahn crée la recette de la Hahn-Zwergla ; la recette est redécouverte à sa mort en 1995.
 En août 1993, Haberstump brasse pour la première fois une bière biologique sous le nom de "Landkrönla" et est ainsi une pionnière du mouvement biologique.
 </t>
         </is>
